--- a/data/ifr_flights.xlsx
+++ b/data/ifr_flights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyven\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E513A4F-B465-49BE-816E-198C8AD81BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EFD8C3-60AC-4051-A168-929F75B3B8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ifrflight" sheetId="22" r:id="rId1"/>
@@ -525,19 +525,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE50129-AC0B-4378-9BC4-EE98C90A7689}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="8" width="12.88671875" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -563,7 +563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -586,11 +586,12 @@
         <v>787503</v>
       </c>
       <c r="H2" s="1">
-        <v>-0.63768518977070565</v>
+        <f>F2/G2</f>
+        <v>0.36231481022929435</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -613,11 +614,12 @@
         <v>737763</v>
       </c>
       <c r="H3" s="1">
-        <v>-0.66125435946232058</v>
+        <f>F3/G3</f>
+        <v>0.33874564053767947</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -640,11 +642,12 @@
         <v>846442</v>
       </c>
       <c r="H4" s="1">
-        <v>-0.63720963751798698</v>
+        <f>F4/G4</f>
+        <v>0.36279036248201296</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -667,11 +670,12 @@
         <v>906539</v>
       </c>
       <c r="H5" s="1">
-        <v>-0.63885502995458554</v>
+        <f>F5/G5</f>
+        <v>0.36114497004541446</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -694,11 +698,12 @@
         <v>985862</v>
       </c>
       <c r="H6" s="1">
-        <v>-0.6141305781133668</v>
+        <f>F6/G6</f>
+        <v>0.3858694218866332</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -721,11 +726,12 @@
         <v>1038128</v>
       </c>
       <c r="H7" s="1">
-        <v>-0.50022636900266626</v>
+        <f>F7/G7</f>
+        <v>0.49977363099733368</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -748,11 +754,12 @@
         <v>1092562</v>
       </c>
       <c r="H8" s="1">
-        <v>-0.34804798263164927</v>
+        <f>F8/G8</f>
+        <v>0.65195201736835073</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -775,11 +782,12 @@
         <v>1080554</v>
       </c>
       <c r="H9" s="1">
-        <v>-0.2937456156749223</v>
+        <f>F9/G9</f>
+        <v>0.7062543843250777</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -802,11 +810,12 @@
         <v>1034322</v>
       </c>
       <c r="H10" s="1">
-        <v>-0.29584597446443173</v>
+        <f>F10/G10</f>
+        <v>0.70415402553556827</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -829,11 +838,12 @@
         <v>980049</v>
       </c>
       <c r="H11" s="1">
-        <v>-0.26648565530907131</v>
+        <f>F11/G11</f>
+        <v>0.73351434469092869</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -856,11 +866,12 @@
         <v>801961</v>
       </c>
       <c r="H12" s="1">
-        <v>-0.22825798262010244</v>
+        <f>F12/G12</f>
+        <v>0.77174201737989756</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -883,11 +894,12 @@
         <v>793617</v>
       </c>
       <c r="H13" s="1">
-        <v>-0.21845802194257435</v>
+        <f>F13/G13</f>
+        <v>0.78154197805742565</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -910,87 +922,10 @@
         <v>11085302</v>
       </c>
       <c r="H14" s="1">
-        <v>-0.43792672495526053</v>
+        <f>F14/G14</f>
+        <v>0.56207327504473947</v>
       </c>
       <c r="I14" s="2"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="1">
-        <f>F2/G2-1</f>
-        <v>-0.63768518977070565</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="1">
-        <f>F3/G3-1</f>
-        <v>-0.66125435946232058</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="1">
-        <f>F4/G4-1</f>
-        <v>-0.63720963751798698</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="1">
-        <f>F5/G5-1</f>
-        <v>-0.63885502995458554</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="1">
-        <f>F6/G6-1</f>
-        <v>-0.6141305781133668</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="1">
-        <f>F7/G7-1</f>
-        <v>-0.50022636900266626</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="1">
-        <f>F8/G8-1</f>
-        <v>-0.34804798263164927</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="1">
-        <f>F9/G9-1</f>
-        <v>-0.2937456156749223</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="1">
-        <f>F10/G10-1</f>
-        <v>-0.29584597446443173</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="1">
-        <f>F11/G11-1</f>
-        <v>-0.26648565530907131</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="1">
-        <f>F12/G12-1</f>
-        <v>-0.22825798262010244</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="1">
-        <f>F13/G13-1</f>
-        <v>-0.21845802194257435</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="1">
-        <f>F14/G14-1</f>
-        <v>-0.43792672495526053</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -998,12 +933,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1230,15 +1162,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5F8F857-E121-4686-AFAF-A3028DE7EF87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31941510-E3C3-4953-8B32-BA17BDE21C03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1263,10 +1199,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31941510-E3C3-4953-8B32-BA17BDE21C03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5F8F857-E121-4686-AFAF-A3028DE7EF87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ifr_flights.xlsx
+++ b/data/ifr_flights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyven\dev\repos\standard_inputs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EFD8C3-60AC-4051-A168-929F75B3B8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A52D46-04F8-4857-A369-56112012273E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ifrflight" sheetId="22" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -167,11 +175,13 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -528,16 +538,16 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+      <selection activeCell="G1" sqref="G1:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -556,14 +566,14 @@
       <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -582,16 +592,16 @@
       <c r="F2" s="3">
         <v>285324</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>787503</v>
       </c>
       <c r="H2" s="1">
-        <f>F2/G2</f>
+        <f t="shared" ref="H2:H14" si="0">F2/G2</f>
         <v>0.36231481022929435</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -610,16 +620,16 @@
       <c r="F3" s="3">
         <v>249914</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>737763</v>
       </c>
       <c r="H3" s="1">
-        <f>F3/G3</f>
+        <f t="shared" si="0"/>
         <v>0.33874564053767947</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -638,16 +648,16 @@
       <c r="F4" s="3">
         <v>307081</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>846442</v>
       </c>
       <c r="H4" s="1">
-        <f>F4/G4</f>
+        <f t="shared" si="0"/>
         <v>0.36279036248201296</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -666,16 +676,16 @@
       <c r="F5" s="3">
         <v>327392</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>906539</v>
       </c>
       <c r="H5" s="1">
-        <f>F5/G5</f>
+        <f t="shared" si="0"/>
         <v>0.36114497004541446</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -694,16 +704,16 @@
       <c r="F6" s="3">
         <v>380414</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>985862</v>
       </c>
       <c r="H6" s="1">
-        <f>F6/G6</f>
+        <f t="shared" si="0"/>
         <v>0.3858694218866332</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -722,16 +732,16 @@
       <c r="F7" s="3">
         <v>518829</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>1038128</v>
       </c>
       <c r="H7" s="1">
-        <f>F7/G7</f>
+        <f t="shared" si="0"/>
         <v>0.49977363099733368</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -750,16 +760,16 @@
       <c r="F8" s="3">
         <v>712298</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>1092562</v>
       </c>
       <c r="H8" s="1">
-        <f>F8/G8</f>
+        <f t="shared" si="0"/>
         <v>0.65195201736835073</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -778,16 +788,16 @@
       <c r="F9" s="3">
         <v>763146</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>1080554</v>
       </c>
       <c r="H9" s="1">
-        <f>F9/G9</f>
+        <f t="shared" si="0"/>
         <v>0.7062543843250777</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -806,16 +816,16 @@
       <c r="F10" s="3">
         <v>728322</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>1034322</v>
       </c>
       <c r="H10" s="1">
-        <f>F10/G10</f>
+        <f t="shared" si="0"/>
         <v>0.70415402553556827</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -834,16 +844,16 @@
       <c r="F11" s="3">
         <v>718880</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <v>980049</v>
       </c>
       <c r="H11" s="1">
-        <f>F11/G11</f>
+        <f t="shared" si="0"/>
         <v>0.73351434469092869</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -862,16 +872,16 @@
       <c r="F12" s="3">
         <v>618907</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <v>801961</v>
       </c>
       <c r="H12" s="1">
-        <f>F12/G12</f>
+        <f t="shared" si="0"/>
         <v>0.77174201737989756</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -890,16 +900,16 @@
       <c r="F13" s="3">
         <v>620245</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>793617</v>
       </c>
       <c r="H13" s="1">
-        <f>F13/G13</f>
+        <f t="shared" si="0"/>
         <v>0.78154197805742565</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -918,24 +928,28 @@
       <c r="F14" s="3">
         <v>6230752</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <v>11085302</v>
       </c>
       <c r="H14" s="1">
-        <f>F14/G14</f>
+        <f t="shared" si="0"/>
         <v>0.56207327504473947</v>
       </c>
       <c r="I14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1162,19 +1176,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31941510-E3C3-4953-8B32-BA17BDE21C03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5F8F857-E121-4686-AFAF-A3028DE7EF87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1199,9 +1209,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5F8F857-E121-4686-AFAF-A3028DE7EF87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31941510-E3C3-4953-8B32-BA17BDE21C03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ifr_flights.xlsx
+++ b/data/ifr_flights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A52D46-04F8-4857-A369-56112012273E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569F8722-DA0C-462D-B9D7-40F52E55A416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ifrflight" sheetId="22" r:id="rId1"/>
@@ -92,10 +92,10 @@
     <t>total_2019</t>
   </si>
   <si>
-    <t>total_2021</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>total_2022</t>
   </si>
 </sst>
 </file>
@@ -215,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,9 +255,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,26 +290,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,26 +325,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,16 +501,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE50129-AC0B-4378-9BC4-EE98C90A7689}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -564,7 +531,7 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -578,26 +545,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>35151</v>
+        <v>55404</v>
       </c>
       <c r="C2" s="3">
-        <v>34972</v>
+        <v>55146</v>
       </c>
       <c r="D2" s="3">
-        <v>206217</v>
+        <v>414063</v>
       </c>
       <c r="E2" s="3">
-        <v>8984</v>
+        <v>14966</v>
       </c>
       <c r="F2" s="3">
-        <v>285324</v>
+        <v>539579</v>
       </c>
       <c r="G2" s="5">
         <v>787503</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H14" si="0">F2/G2</f>
-        <v>0.36231481022929435</v>
+        <f>F2/G2</f>
+        <v>0.68517707234131175</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -606,26 +573,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>30871</v>
+        <v>50790</v>
       </c>
       <c r="C3" s="3">
-        <v>30885</v>
+        <v>50617</v>
       </c>
       <c r="D3" s="3">
-        <v>180689</v>
+        <v>408170</v>
       </c>
       <c r="E3" s="3">
-        <v>7469</v>
+        <v>12509</v>
       </c>
       <c r="F3" s="3">
-        <v>249914</v>
+        <v>522086</v>
       </c>
       <c r="G3" s="5">
         <v>737763</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33874564053767947</v>
+        <f t="shared" ref="H3:H14" si="0">F3/G3</f>
+        <v>0.70766086127929972</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -634,26 +601,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>37174</v>
+        <v>59201</v>
       </c>
       <c r="C4" s="3">
-        <v>37184</v>
+        <v>59017</v>
       </c>
       <c r="D4" s="3">
-        <v>223117</v>
+        <v>515945</v>
       </c>
       <c r="E4" s="3">
-        <v>9606</v>
+        <v>12293</v>
       </c>
       <c r="F4" s="3">
-        <v>307081</v>
+        <v>646456</v>
       </c>
       <c r="G4" s="5">
         <v>846442</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0.36279036248201296</v>
+        <v>0.76373336861828689</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -662,26 +629,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>37729</v>
+        <v>63347</v>
       </c>
       <c r="C5" s="3">
-        <v>37685</v>
+        <v>63158</v>
       </c>
       <c r="D5" s="3">
-        <v>241842</v>
+        <v>604074</v>
       </c>
       <c r="E5" s="3">
-        <v>10136</v>
+        <v>11410</v>
       </c>
       <c r="F5" s="3">
-        <v>327392</v>
+        <v>741989</v>
       </c>
       <c r="G5" s="5">
         <v>906539</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>0.36114497004541446</v>
+        <v>0.81848547056442134</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -690,26 +657,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>38847</v>
+        <v>71101</v>
       </c>
       <c r="C6" s="3">
-        <v>38615</v>
+        <v>70824</v>
       </c>
       <c r="D6" s="3">
-        <v>291508</v>
+        <v>695949</v>
       </c>
       <c r="E6" s="3">
-        <v>11444</v>
+        <v>13273</v>
       </c>
       <c r="F6" s="3">
-        <v>380414</v>
+        <v>851147</v>
       </c>
       <c r="G6" s="5">
         <v>985862</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0.3858694218866332</v>
+        <v>0.86335308592886228</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -718,26 +685,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>45437</v>
+        <v>77150</v>
       </c>
       <c r="C7" s="3">
-        <v>45275</v>
+        <v>76794</v>
       </c>
       <c r="D7" s="3">
-        <v>415450</v>
+        <v>725748</v>
       </c>
       <c r="E7" s="3">
-        <v>12667</v>
+        <v>13977</v>
       </c>
       <c r="F7" s="3">
-        <v>518829</v>
+        <v>893669</v>
       </c>
       <c r="G7" s="5">
         <v>1038128</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>0.49977363099733368</v>
+        <v>0.86084663933541916</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -746,26 +713,26 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>62118</v>
+        <v>87541</v>
       </c>
       <c r="C8" s="3">
-        <v>62163</v>
+        <v>87643</v>
       </c>
       <c r="D8" s="3">
-        <v>574282</v>
+        <v>759745</v>
       </c>
       <c r="E8" s="3">
-        <v>13735</v>
+        <v>15615</v>
       </c>
       <c r="F8" s="3">
-        <v>712298</v>
+        <v>950544</v>
       </c>
       <c r="G8" s="5">
         <v>1092562</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0.65195201736835073</v>
+        <v>0.87001378411476882</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -774,26 +741,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>64778</v>
+        <v>88379</v>
       </c>
       <c r="C9" s="3">
-        <v>64666</v>
+        <v>88363</v>
       </c>
       <c r="D9" s="3">
-        <v>619233</v>
+        <v>755485</v>
       </c>
       <c r="E9" s="3">
-        <v>14469</v>
+        <v>15897</v>
       </c>
       <c r="F9" s="3">
-        <v>763146</v>
+        <v>948124</v>
       </c>
       <c r="G9" s="5">
         <v>1080554</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0.7062543843250777</v>
+        <v>0.87744249708945599</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -802,26 +769,26 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>61777</v>
+        <v>81577</v>
       </c>
       <c r="C10" s="3">
-        <v>61857</v>
+        <v>81483</v>
       </c>
       <c r="D10" s="3">
-        <v>591118</v>
+        <v>721100</v>
       </c>
       <c r="E10" s="3">
-        <v>13570</v>
+        <v>15117</v>
       </c>
       <c r="F10" s="3">
-        <v>728322</v>
+        <v>899277</v>
       </c>
       <c r="G10" s="5">
         <v>1034322</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>0.70415402553556827</v>
+        <v>0.86943621038709418</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -830,26 +797,26 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>64142</v>
+        <v>79570</v>
       </c>
       <c r="C11" s="3">
-        <v>64303</v>
+        <v>80012</v>
       </c>
       <c r="D11" s="3">
-        <v>575242</v>
+        <v>684229</v>
       </c>
       <c r="E11" s="3">
-        <v>15193</v>
+        <v>15033</v>
       </c>
       <c r="F11" s="3">
-        <v>718880</v>
+        <v>858844</v>
       </c>
       <c r="G11" s="5">
         <v>980049</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>0.73351434469092869</v>
+        <v>0.87632761219081901</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -858,26 +825,26 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>59498</v>
+        <v>70868</v>
       </c>
       <c r="C12" s="3">
-        <v>59573</v>
+        <v>70939</v>
       </c>
       <c r="D12" s="3">
-        <v>483850</v>
+        <v>536747</v>
       </c>
       <c r="E12" s="3">
-        <v>15986</v>
+        <v>14772</v>
       </c>
       <c r="F12" s="3">
-        <v>618907</v>
+        <v>693326</v>
       </c>
       <c r="G12" s="5">
         <v>801961</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>0.77174201737989756</v>
+        <v>0.86453830049092162</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -886,56 +853,59 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>59552</v>
+        <v>74021</v>
       </c>
       <c r="C13" s="3">
-        <v>59797</v>
+        <v>74221</v>
       </c>
       <c r="D13" s="3">
-        <v>485033</v>
+        <v>527941</v>
       </c>
       <c r="E13" s="3">
-        <v>15863</v>
+        <v>16469</v>
       </c>
       <c r="F13" s="3">
-        <v>620245</v>
+        <v>692652</v>
       </c>
       <c r="G13" s="5">
         <v>793617</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>0.78154197805742565</v>
+        <v>0.87277868291631855</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
-        <v>597074</v>
+        <v>858949</v>
       </c>
       <c r="C14" s="3">
-        <v>596975</v>
+        <v>858217</v>
       </c>
       <c r="D14" s="3">
-        <v>4887581</v>
+        <v>7349196</v>
       </c>
       <c r="E14" s="3">
-        <v>149122</v>
+        <v>171331</v>
       </c>
       <c r="F14" s="3">
-        <v>6230752</v>
+        <v>9237693</v>
       </c>
       <c r="G14" s="5">
         <v>11085302</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>0.56207327504473947</v>
+        <v>0.83332804104028924</v>
       </c>
       <c r="I14" s="2"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ifr_flights.xlsx
+++ b/data/ifr_flights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569F8722-DA0C-462D-B9D7-40F52E55A416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12764741-B3AE-4C64-B411-A2453AC8B76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ifrflight" sheetId="22" r:id="rId1"/>
@@ -164,7 +164,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -173,23 +173,19 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,7 +500,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +529,7 @@
       <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H1" t="s">
@@ -544,368 +540,368 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>55404</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>55146</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>414063</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>14966</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>539579</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2">
         <v>787503</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <f>F2/G2</f>
         <v>0.68517707234131175</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>50790</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>50617</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>408170</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>12509</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>522086</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>737763</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <f t="shared" ref="H3:H14" si="0">F3/G3</f>
         <v>0.70766086127929972</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>59201</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>59017</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>515945</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>12293</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>646456</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>846442</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>0.76373336861828689</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>63347</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>63158</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>604074</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>11410</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>741989</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>906539</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>0.81848547056442134</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>71101</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>70824</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>695949</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>13273</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>851147</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>985862</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>0.86335308592886228</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>77150</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>76794</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>725748</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>13977</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>893669</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>1038128</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>0.86084663933541916</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>87541</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>87643</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>759745</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>15615</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>950544</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>1092562</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>0.87001378411476882</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>88379</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>88363</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>755485</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>15897</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>948124</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>1080554</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>0.87744249708945599</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>81577</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>81483</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>721100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>15117</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>899277</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>1034322</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>0.86943621038709418</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>79570</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>80012</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>684229</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>15033</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>858844</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>980049</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>0.87632761219081901</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>70868</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>70939</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>536747</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>14772</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>693326</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>801961</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>0.86453830049092162</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>74021</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>74221</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>527941</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>16469</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>692652</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>793617</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>0.87277868291631855</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>858949</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>858217</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>7349196</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>171331</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>9237693</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14">
         <v>11085302</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>0.83332804104028924</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="24" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="3"/>
+      <c r="K24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -914,12 +910,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1146,15 +1139,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5F8F857-E121-4686-AFAF-A3028DE7EF87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31941510-E3C3-4953-8B32-BA17BDE21C03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1179,10 +1176,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31941510-E3C3-4953-8B32-BA17BDE21C03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5F8F857-E121-4686-AFAF-A3028DE7EF87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ifr_flights.xlsx
+++ b/data/ifr_flights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A52D46-04F8-4857-A369-56112012273E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12764741-B3AE-4C64-B411-A2453AC8B76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ifrflight" sheetId="22" r:id="rId1"/>
@@ -92,10 +92,10 @@
     <t>total_2019</t>
   </si>
   <si>
-    <t>total_2021</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>total_2022</t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -173,23 +173,19 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -215,9 +211,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,9 +251,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,26 +286,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,26 +321,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,16 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE50129-AC0B-4378-9BC4-EE98C90A7689}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -564,9 +527,9 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H1" t="s">
@@ -577,365 +540,368 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>35151</v>
-      </c>
-      <c r="C2" s="3">
-        <v>34972</v>
-      </c>
-      <c r="D2" s="3">
-        <v>206217</v>
-      </c>
-      <c r="E2" s="3">
-        <v>8984</v>
-      </c>
-      <c r="F2" s="3">
-        <v>285324</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="B2">
+        <v>55404</v>
+      </c>
+      <c r="C2">
+        <v>55146</v>
+      </c>
+      <c r="D2">
+        <v>414063</v>
+      </c>
+      <c r="E2">
+        <v>14966</v>
+      </c>
+      <c r="F2">
+        <v>539579</v>
+      </c>
+      <c r="G2">
         <v>787503</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H14" si="0">F2/G2</f>
-        <v>0.36231481022929435</v>
-      </c>
-      <c r="I2" s="2"/>
+      <c r="H2">
+        <f>F2/G2</f>
+        <v>0.68517707234131175</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>30871</v>
-      </c>
-      <c r="C3" s="3">
-        <v>30885</v>
-      </c>
-      <c r="D3" s="3">
-        <v>180689</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7469</v>
-      </c>
-      <c r="F3" s="3">
-        <v>249914</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="B3">
+        <v>50790</v>
+      </c>
+      <c r="C3">
+        <v>50617</v>
+      </c>
+      <c r="D3">
+        <v>408170</v>
+      </c>
+      <c r="E3">
+        <v>12509</v>
+      </c>
+      <c r="F3">
+        <v>522086</v>
+      </c>
+      <c r="G3">
         <v>737763</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33874564053767947</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="H3">
+        <f t="shared" ref="H3:H14" si="0">F3/G3</f>
+        <v>0.70766086127929972</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>37174</v>
-      </c>
-      <c r="C4" s="3">
-        <v>37184</v>
-      </c>
-      <c r="D4" s="3">
-        <v>223117</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9606</v>
-      </c>
-      <c r="F4" s="3">
-        <v>307081</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="B4">
+        <v>59201</v>
+      </c>
+      <c r="C4">
+        <v>59017</v>
+      </c>
+      <c r="D4">
+        <v>515945</v>
+      </c>
+      <c r="E4">
+        <v>12293</v>
+      </c>
+      <c r="F4">
+        <v>646456</v>
+      </c>
+      <c r="G4">
         <v>846442</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.36279036248201296</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>0.76373336861828689</v>
+      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>37729</v>
-      </c>
-      <c r="C5" s="3">
-        <v>37685</v>
-      </c>
-      <c r="D5" s="3">
-        <v>241842</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10136</v>
-      </c>
-      <c r="F5" s="3">
-        <v>327392</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="B5">
+        <v>63347</v>
+      </c>
+      <c r="C5">
+        <v>63158</v>
+      </c>
+      <c r="D5">
+        <v>604074</v>
+      </c>
+      <c r="E5">
+        <v>11410</v>
+      </c>
+      <c r="F5">
+        <v>741989</v>
+      </c>
+      <c r="G5">
         <v>906539</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.36114497004541446</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>0.81848547056442134</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>38847</v>
-      </c>
-      <c r="C6" s="3">
-        <v>38615</v>
-      </c>
-      <c r="D6" s="3">
-        <v>291508</v>
-      </c>
-      <c r="E6" s="3">
-        <v>11444</v>
-      </c>
-      <c r="F6" s="3">
-        <v>380414</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="B6">
+        <v>71101</v>
+      </c>
+      <c r="C6">
+        <v>70824</v>
+      </c>
+      <c r="D6">
+        <v>695949</v>
+      </c>
+      <c r="E6">
+        <v>13273</v>
+      </c>
+      <c r="F6">
+        <v>851147</v>
+      </c>
+      <c r="G6">
         <v>985862</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.3858694218866332</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>0.86335308592886228</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>45437</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45275</v>
-      </c>
-      <c r="D7" s="3">
-        <v>415450</v>
-      </c>
-      <c r="E7" s="3">
-        <v>12667</v>
-      </c>
-      <c r="F7" s="3">
-        <v>518829</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="B7">
+        <v>77150</v>
+      </c>
+      <c r="C7">
+        <v>76794</v>
+      </c>
+      <c r="D7">
+        <v>725748</v>
+      </c>
+      <c r="E7">
+        <v>13977</v>
+      </c>
+      <c r="F7">
+        <v>893669</v>
+      </c>
+      <c r="G7">
         <v>1038128</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.49977363099733368</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>0.86084663933541916</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>62118</v>
-      </c>
-      <c r="C8" s="3">
-        <v>62163</v>
-      </c>
-      <c r="D8" s="3">
-        <v>574282</v>
-      </c>
-      <c r="E8" s="3">
-        <v>13735</v>
-      </c>
-      <c r="F8" s="3">
-        <v>712298</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="B8">
+        <v>87541</v>
+      </c>
+      <c r="C8">
+        <v>87643</v>
+      </c>
+      <c r="D8">
+        <v>759745</v>
+      </c>
+      <c r="E8">
+        <v>15615</v>
+      </c>
+      <c r="F8">
+        <v>950544</v>
+      </c>
+      <c r="G8">
         <v>1092562</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.65195201736835073</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>0.87001378411476882</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>64778</v>
-      </c>
-      <c r="C9" s="3">
-        <v>64666</v>
-      </c>
-      <c r="D9" s="3">
-        <v>619233</v>
-      </c>
-      <c r="E9" s="3">
-        <v>14469</v>
-      </c>
-      <c r="F9" s="3">
-        <v>763146</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="B9">
+        <v>88379</v>
+      </c>
+      <c r="C9">
+        <v>88363</v>
+      </c>
+      <c r="D9">
+        <v>755485</v>
+      </c>
+      <c r="E9">
+        <v>15897</v>
+      </c>
+      <c r="F9">
+        <v>948124</v>
+      </c>
+      <c r="G9">
         <v>1080554</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.7062543843250777</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>0.87744249708945599</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>61777</v>
-      </c>
-      <c r="C10" s="3">
-        <v>61857</v>
-      </c>
-      <c r="D10" s="3">
-        <v>591118</v>
-      </c>
-      <c r="E10" s="3">
-        <v>13570</v>
-      </c>
-      <c r="F10" s="3">
-        <v>728322</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="B10">
+        <v>81577</v>
+      </c>
+      <c r="C10">
+        <v>81483</v>
+      </c>
+      <c r="D10">
+        <v>721100</v>
+      </c>
+      <c r="E10">
+        <v>15117</v>
+      </c>
+      <c r="F10">
+        <v>899277</v>
+      </c>
+      <c r="G10">
         <v>1034322</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.70415402553556827</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>0.86943621038709418</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>64142</v>
-      </c>
-      <c r="C11" s="3">
-        <v>64303</v>
-      </c>
-      <c r="D11" s="3">
-        <v>575242</v>
-      </c>
-      <c r="E11" s="3">
-        <v>15193</v>
-      </c>
-      <c r="F11" s="3">
-        <v>718880</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="B11">
+        <v>79570</v>
+      </c>
+      <c r="C11">
+        <v>80012</v>
+      </c>
+      <c r="D11">
+        <v>684229</v>
+      </c>
+      <c r="E11">
+        <v>15033</v>
+      </c>
+      <c r="F11">
+        <v>858844</v>
+      </c>
+      <c r="G11">
         <v>980049</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.73351434469092869</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>0.87632761219081901</v>
+      </c>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>59498</v>
-      </c>
-      <c r="C12" s="3">
-        <v>59573</v>
-      </c>
-      <c r="D12" s="3">
-        <v>483850</v>
-      </c>
-      <c r="E12" s="3">
-        <v>15986</v>
-      </c>
-      <c r="F12" s="3">
-        <v>618907</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="B12">
+        <v>70868</v>
+      </c>
+      <c r="C12">
+        <v>70939</v>
+      </c>
+      <c r="D12">
+        <v>536747</v>
+      </c>
+      <c r="E12">
+        <v>14772</v>
+      </c>
+      <c r="F12">
+        <v>693326</v>
+      </c>
+      <c r="G12">
         <v>801961</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.77174201737989756</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>0.86453830049092162</v>
+      </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>59552</v>
-      </c>
-      <c r="C13" s="3">
-        <v>59797</v>
-      </c>
-      <c r="D13" s="3">
-        <v>485033</v>
-      </c>
-      <c r="E13" s="3">
-        <v>15863</v>
-      </c>
-      <c r="F13" s="3">
-        <v>620245</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="B13">
+        <v>74021</v>
+      </c>
+      <c r="C13">
+        <v>74221</v>
+      </c>
+      <c r="D13">
+        <v>527941</v>
+      </c>
+      <c r="E13">
+        <v>16469</v>
+      </c>
+      <c r="F13">
+        <v>692652</v>
+      </c>
+      <c r="G13">
         <v>793617</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.78154197805742565</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>0.87277868291631855</v>
+      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>597074</v>
-      </c>
-      <c r="C14" s="3">
-        <v>596975</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4887581</v>
-      </c>
-      <c r="E14" s="3">
-        <v>149122</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6230752</v>
-      </c>
-      <c r="G14" s="5">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>858949</v>
+      </c>
+      <c r="C14">
+        <v>858217</v>
+      </c>
+      <c r="D14">
+        <v>7349196</v>
+      </c>
+      <c r="E14">
+        <v>171331</v>
+      </c>
+      <c r="F14">
+        <v>9237693</v>
+      </c>
+      <c r="G14">
         <v>11085302</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.56207327504473947</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>0.83332804104028924</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -944,12 +910,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1176,15 +1139,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5F8F857-E121-4686-AFAF-A3028DE7EF87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31941510-E3C3-4953-8B32-BA17BDE21C03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1209,10 +1176,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31941510-E3C3-4953-8B32-BA17BDE21C03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5F8F857-E121-4686-AFAF-A3028DE7EF87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ifr_flights.xlsx
+++ b/data/ifr_flights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12764741-B3AE-4C64-B411-A2453AC8B76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2A64EF-34BD-4D0C-A585-9045BD88943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ifrflight" sheetId="22" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>total_2022</t>
+    <t>total_2024</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,26 +541,26 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55404</v>
+        <v>76872</v>
       </c>
       <c r="C2">
-        <v>55146</v>
+        <v>76604</v>
       </c>
       <c r="D2">
-        <v>414063</v>
+        <v>533790</v>
       </c>
       <c r="E2">
-        <v>14966</v>
+        <v>17213</v>
       </c>
       <c r="F2">
-        <v>539579</v>
+        <v>704479</v>
       </c>
       <c r="G2">
         <v>787503</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>F2/G2</f>
-        <v>0.68517707234131175</v>
+        <v>0.89457310003898394</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -569,26 +569,26 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50790</v>
+        <v>71831</v>
       </c>
       <c r="C3">
-        <v>50617</v>
+        <v>71710</v>
       </c>
       <c r="D3">
-        <v>408170</v>
+        <v>534417</v>
       </c>
       <c r="E3">
-        <v>12509</v>
+        <v>15443</v>
       </c>
       <c r="F3">
-        <v>522086</v>
+        <v>693401</v>
       </c>
       <c r="G3">
         <v>737763</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f t="shared" ref="H3:H14" si="0">F3/G3</f>
-        <v>0.70766086127929972</v>
+        <v>0.93986957871294707</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -597,26 +597,26 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59201</v>
+        <v>80348</v>
       </c>
       <c r="C4">
-        <v>59017</v>
+        <v>80226</v>
       </c>
       <c r="D4">
-        <v>515945</v>
+        <v>606957</v>
       </c>
       <c r="E4">
-        <v>12293</v>
+        <v>17772</v>
       </c>
       <c r="F4">
-        <v>646456</v>
+        <v>785303</v>
       </c>
       <c r="G4">
         <v>846442</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0.76373336861828689</v>
+        <v>0.92776941597888574</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -625,26 +625,26 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63347</v>
+        <v>84393</v>
       </c>
       <c r="C5">
-        <v>63158</v>
+        <v>84120</v>
       </c>
       <c r="D5">
-        <v>604074</v>
+        <v>682535</v>
       </c>
       <c r="E5">
-        <v>11410</v>
+        <v>17511</v>
       </c>
       <c r="F5">
-        <v>741989</v>
+        <v>868559</v>
       </c>
       <c r="G5">
         <v>906539</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>0.81848547056442134</v>
+        <v>0.95810439484677434</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -653,26 +653,26 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71101</v>
+        <v>91894</v>
       </c>
       <c r="C6">
-        <v>70824</v>
+        <v>91418</v>
       </c>
       <c r="D6">
-        <v>695949</v>
+        <v>761224</v>
       </c>
       <c r="E6">
-        <v>13273</v>
+        <v>18313</v>
       </c>
       <c r="F6">
-        <v>851147</v>
+        <v>962849</v>
       </c>
       <c r="G6">
         <v>985862</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0.86335308592886228</v>
+        <v>0.97665697633137294</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -681,26 +681,26 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>77150</v>
+        <v>98496</v>
       </c>
       <c r="C7">
-        <v>76794</v>
+        <v>98323</v>
       </c>
       <c r="D7">
-        <v>725748</v>
+        <v>789658</v>
       </c>
       <c r="E7">
-        <v>13977</v>
+        <v>18856</v>
       </c>
       <c r="F7">
-        <v>893669</v>
+        <v>1005333</v>
       </c>
       <c r="G7">
         <v>1038128</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>0.86084663933541916</v>
+        <v>0.96840948322364873</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -709,26 +709,26 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>87541</v>
+        <v>106546</v>
       </c>
       <c r="C8">
-        <v>87643</v>
+        <v>106436</v>
       </c>
       <c r="D8">
-        <v>759745</v>
+        <v>827974</v>
       </c>
       <c r="E8">
-        <v>15615</v>
+        <v>19593</v>
       </c>
       <c r="F8">
-        <v>950544</v>
+        <v>1060549</v>
       </c>
       <c r="G8">
         <v>1092562</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0.87001378411476882</v>
+        <v>0.97069914567777393</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -737,26 +737,26 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>88379</v>
+        <v>106531</v>
       </c>
       <c r="C9">
-        <v>88363</v>
+        <v>106613</v>
       </c>
       <c r="D9">
-        <v>755485</v>
+        <v>818619</v>
       </c>
       <c r="E9">
-        <v>15897</v>
+        <v>19298</v>
       </c>
       <c r="F9">
-        <v>948124</v>
+        <v>1051061</v>
       </c>
       <c r="G9">
         <v>1080554</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0.87744249708945599</v>
+        <v>0.97270566764826194</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -765,26 +765,26 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>81577</v>
+        <v>97605</v>
       </c>
       <c r="C10">
-        <v>81483</v>
+        <v>97395</v>
       </c>
       <c r="D10">
-        <v>721100</v>
+        <v>789098</v>
       </c>
       <c r="E10">
-        <v>15117</v>
+        <v>18280</v>
       </c>
       <c r="F10">
-        <v>899277</v>
+        <v>1002378</v>
       </c>
       <c r="G10">
         <v>1034322</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>0.86943621038709418</v>
+        <v>0.96911600062649739</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -793,26 +793,26 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>79570</v>
+        <v>93035</v>
       </c>
       <c r="C11">
-        <v>80012</v>
+        <v>93458</v>
       </c>
       <c r="D11">
-        <v>684229</v>
+        <v>752166</v>
       </c>
       <c r="E11">
-        <v>15033</v>
+        <v>17460</v>
       </c>
       <c r="F11">
-        <v>858844</v>
+        <v>956119</v>
       </c>
       <c r="G11">
         <v>980049</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>0.87632761219081901</v>
+        <v>0.97558285351038565</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -821,26 +821,26 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70868</v>
+        <v>82931</v>
       </c>
       <c r="C12">
-        <v>70939</v>
+        <v>82998</v>
       </c>
       <c r="D12">
-        <v>536747</v>
+        <v>585523</v>
       </c>
       <c r="E12">
-        <v>14772</v>
+        <v>16969</v>
       </c>
       <c r="F12">
-        <v>693326</v>
+        <v>768421</v>
       </c>
       <c r="G12">
         <v>801961</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>0.86453830049092162</v>
+        <v>0.95817751736056989</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -849,26 +849,26 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>74021</v>
+        <v>86688</v>
       </c>
       <c r="C13">
-        <v>74221</v>
+        <v>86845</v>
       </c>
       <c r="D13">
-        <v>527941</v>
+        <v>583142</v>
       </c>
       <c r="E13">
-        <v>16469</v>
+        <v>18864</v>
       </c>
       <c r="F13">
-        <v>692652</v>
+        <v>775539</v>
       </c>
       <c r="G13">
         <v>793617</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>0.87277868291631855</v>
+        <v>0.97722075005953757</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -877,26 +877,26 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>858949</v>
+        <v>1077170</v>
       </c>
       <c r="C14">
-        <v>858217</v>
+        <v>1076146</v>
       </c>
       <c r="D14">
-        <v>7349196</v>
+        <v>8265103</v>
       </c>
       <c r="E14">
-        <v>171331</v>
+        <v>215572</v>
       </c>
       <c r="F14">
-        <v>9237693</v>
+        <v>10633991</v>
       </c>
       <c r="G14">
         <v>11085302</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0.83332804104028924</v>
+      <c r="H14" s="1">
+        <f>F14/G14</f>
+        <v>0.9592874420561569</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1181,4 +1181,10 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{fd60f3b8-f236-4830-aecc-da0a7fc54679}" enabled="1" method="Standard" siteId="{76f33c20-5979-4408-adf7-8b3c4be95e52}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>